--- a/app/files/Indonesia/GeographyExtended-(erasmartphone.com)--(999)--(Month_2017_10_1).xlsx
+++ b/app/files/Indonesia/GeographyExtended-(erasmartphone.com)--(999)--(Month_2017_10_1).xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rybalov.KL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mnv/Desktop/datafactory/app/files/Indonesia/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Report Details" sheetId="1" r:id="rId1"/>
     <sheet name="Aggregated Data for Time Period" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -641,7 +649,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -679,14 +687,14 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -719,9 +727,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -751,7 +759,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -907,20 +915,20 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="3.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" customWidth="1"/>
+    <col min="6" max="6" width="5.5" customWidth="1"/>
     <col min="7" max="7" width="13" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" customWidth="1"/>
-    <col min="9" max="180" width="9.140625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="180" width="9.1640625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:180" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:180" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1102,7 +1110,7 @@
       <c r="FW1" s="7"/>
       <c r="FX1" s="7"/>
     </row>
-    <row r="2" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:180" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1284,7 +1292,7 @@
       <c r="FW2" s="7"/>
       <c r="FX2" s="7"/>
     </row>
-    <row r="3" spans="1:180" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:180" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1294,7 +1302,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:180" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:180" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
         <v>0</v>
@@ -1310,7 +1318,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:180" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:180" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1320,7 +1328,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:180" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:180" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="22" t="s">
         <v>3</v>
@@ -1334,7 +1342,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:180" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:180" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="23" t="s">
         <v>5</v>
@@ -1348,7 +1356,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:180" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:180" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="22" t="s">
         <v>7</v>
@@ -1362,7 +1370,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:180" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:180" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="23" t="s">
         <v>9</v>
@@ -1376,7 +1384,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:180" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:180" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="22" t="s">
         <v>10</v>
@@ -1390,7 +1398,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:180" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:180" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="23" t="s">
         <v>12</v>
@@ -1576,7 +1584,7 @@
       <c r="FW11" s="16"/>
       <c r="FX11" s="16"/>
     </row>
-    <row r="12" spans="1:180" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:180" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="22"/>
       <c r="C12" s="21"/>
@@ -1758,7 +1766,7 @@
       <c r="FW12" s="16"/>
       <c r="FX12" s="16"/>
     </row>
-    <row r="13" spans="1:180" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:180" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -1940,7 +1948,7 @@
       <c r="FW13" s="16"/>
       <c r="FX13" s="16"/>
     </row>
-    <row r="14" spans="1:180" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:180" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1950,382 +1958,382 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:180" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:180" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:180" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:180" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F16" s="15"/>
     </row>
-    <row r="17" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="353" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="282" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="284" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="286" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="288" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="294" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="296" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="298" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="300" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="302" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="304" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="320" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="321" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="353" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="354" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="355" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="356" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="357" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="359" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="363" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="364" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="365" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="366" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="367" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="368" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="369" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="370" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="371" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="372" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="373" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="374" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="375" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="376" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="377" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="378" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="379" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="380" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="381" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="382" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="383" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="384" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="385" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="386" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="387" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="388" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2339,22 +2347,22 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="J2:K2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="27" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="26" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="30" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="27" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>14</v>
       </c>
@@ -2380,10 +2388,10 @@
         <v>40</v>
       </c>
       <c r="J1" s="52">
-        <v>1989000000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1989000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
         <v>21</v>
       </c>
@@ -2406,7 +2414,7 @@
         <v>0.53288962839711607</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>22</v>
       </c>
@@ -2429,7 +2437,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
         <v>23</v>
       </c>
@@ -2452,7 +2460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>24</v>
       </c>
@@ -2475,7 +2483,7 @@
         <v>0.77777777777777768</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>25</v>
       </c>
@@ -2498,7 +2506,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
         <v>26</v>
       </c>
@@ -2521,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
         <v>27</v>
       </c>
@@ -2544,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>28</v>
       </c>
@@ -2567,7 +2575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>29</v>
       </c>
@@ -2590,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>30</v>
       </c>
@@ -2613,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>31</v>
       </c>
@@ -2636,7 +2644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>32</v>
       </c>
@@ -2659,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>33</v>
       </c>
@@ -2682,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>34</v>
       </c>
@@ -2705,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
         <v>35</v>
       </c>
@@ -2728,7 +2736,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
         <v>36</v>
       </c>
@@ -2751,7 +2759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="38" t="s">
         <v>37</v>
       </c>
@@ -2774,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="38" t="s">
         <v>38</v>
       </c>
@@ -2797,7 +2805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
         <v>39</v>
       </c>
@@ -2820,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="39"/>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
